--- a/medicine/Pharmacie/Jacques_Machizaud/Jacques_Machizaud.xlsx
+++ b/medicine/Pharmacie/Jacques_Machizaud/Jacques_Machizaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Germain André Machizaud, né le 23 mai 1922 à Gien et mort le 2 mars 1999 à Paris 12e, est un chef d'entreprise français, président de Roussel-Uclaf de 1974 à 1981, puis du conseil de surveillance jusqu'en 1994.
 </t>
@@ -511,11 +523,13 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence sa carrière au ministère des Affaires étrangères en 1944, puis devient attaché de cabinet au ministère des Prisonniers et Déportés l'année suivante.
 Il entre dans le groupe Roussel-Uclaf en 1946, et devient directeur-général de Roussel Laboratories Ltd, la branche britannique de Roussel-Uclaf mais aussi des filiales du groupe dans le Commonwealth, jusqu'en 1966.
-Nommé directeur général du groupe, puis vice-président directeur général, il est élu président du directoire en 1974, puis président du conseil de surveillance de 1981 à 1989. Il est également président d'honneur de Nippon Roussel et de Roussel Medica (Japon), de Roussel Laboratories (Grande-Bretagne), vice-président du conseil de surveillance de la branche française de Hoechst (1981-1989)[1].
+Nommé directeur général du groupe, puis vice-président directeur général, il est élu président du directoire en 1974, puis président du conseil de surveillance de 1981 à 1989. Il est également président d'honneur de Nippon Roussel et de Roussel Medica (Japon), de Roussel Laboratories (Grande-Bretagne), vice-président du conseil de surveillance de la branche française de Hoechst (1981-1989).
 Il est un ancien membre fondateur de l'Institut de l'entreprise et ancien président de la commission du redéploiement industriel et présence française à l´étranger.
 Il a été administrateur d'Allianz Via Assurances, de Lenôtre SA, de la compagnie Saupiquet, de Champagne de Venoge, de Fichet-Bauche, de CPA, de l´Alliance française et du Cercle de l'opinion.
 Il était membre du Conseil économique et social (1979-1989), président d'honneur du comité Japon au Conseil national du patronat français (CNPF), et ancien coprésident du Comité franco-japonais de coopération industrielle.
@@ -547,7 +561,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Relations économiques franco-japonaises (1981).
 Le Rôle de la France dans le Pacifique Nord (1986).</t>
@@ -578,7 +594,9 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Commandeur de la Légion d'honneur et de l'ordre national du Mérite
 Chevalier des Palmes académiques et de l'Ordre de la Santé publique
